--- a/results/results.xlsx
+++ b/results/results.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\materials\lab\gitprjct\Disaggregation\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B9C40A-74AE-489D-8B3A-76FBF2C47160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4500" yWindow="3855" windowWidth="15990" windowHeight="7065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
   <si>
     <t>MAPE</t>
   </si>
@@ -85,17 +79,26 @@
     <t>sum_2012</t>
   </si>
   <si>
+    <t>true_sum_2012</t>
+  </si>
+  <si>
+    <t>true_sect_2012</t>
+  </si>
+  <si>
     <t>sect_2012</t>
   </si>
   <si>
     <t>totals_2012</t>
+  </si>
+  <si>
+    <t>totals_2007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,25 +157,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,9 +205,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -244,27 +239,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,27 +273,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,23 +448,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,199 +490,199 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
-        <v>11.9138</v>
+        <v>14.9574</v>
       </c>
       <c r="B2">
-        <v>1507</v>
+        <v>1483</v>
       </c>
       <c r="C2">
-        <v>2.5700000000000001E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D2">
-        <v>0.97929999999999995</v>
+        <v>0.9684</v>
       </c>
       <c r="E2">
-        <v>7.0300000000000001E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F2">
-        <v>19.561499999999999</v>
+        <v>23.2183</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3">
-        <v>12.2531</v>
+        <v>14.9635</v>
       </c>
       <c r="B3">
-        <v>1823</v>
+        <v>1442</v>
       </c>
       <c r="C3">
-        <v>2.8299999999999999E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D3">
-        <v>0.9758</v>
+        <v>0.9684</v>
       </c>
       <c r="E3">
-        <v>6.4299999999999996E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F3">
-        <v>20.4909</v>
+        <v>23.218</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>45.655000000000001</v>
+        <v>15.0569</v>
       </c>
       <c r="B4">
-        <v>22302</v>
+        <v>1879</v>
       </c>
       <c r="C4">
-        <v>7.6300000000000007E-2</v>
+        <v>0.0339</v>
       </c>
       <c r="D4">
-        <v>0.95750000000000002</v>
+        <v>0.9684</v>
       </c>
       <c r="E4">
-        <v>0.12429999999999999</v>
+        <v>0.066</v>
       </c>
       <c r="F4">
-        <v>29.973800000000001</v>
+        <v>23.2346</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5">
-        <v>70.705200000000005</v>
+        <v>14.9871</v>
       </c>
       <c r="B5">
-        <v>32592</v>
+        <v>1458</v>
       </c>
       <c r="C5">
-        <v>9.4200000000000006E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D5">
-        <v>0.96089999999999998</v>
+        <v>0.9684</v>
       </c>
       <c r="E5">
-        <v>0.10580000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="F5">
-        <v>32.4392</v>
+        <v>23.2236</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6">
-        <v>13.4465</v>
+        <v>14.9821</v>
       </c>
       <c r="B6">
-        <v>1501</v>
+        <v>1447</v>
       </c>
       <c r="C6">
-        <v>4.2799999999999998E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D6">
-        <v>0.95009999999999994</v>
+        <v>0.9684</v>
       </c>
       <c r="E6">
-        <v>0.1043</v>
+        <v>0.066</v>
       </c>
       <c r="F6">
-        <v>26.685300000000002</v>
+        <v>23.2232</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" t="s">
         <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7">
-        <v>14.9574</v>
+        <v>14.9614</v>
       </c>
       <c r="B7">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="C7">
-        <v>3.3799999999999997E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D7">
-        <v>0.96840000000000004</v>
+        <v>0.9684</v>
       </c>
       <c r="E7">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F7">
-        <v>23.218299999999999</v>
+        <v>23.2184</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -744,30 +694,30 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8">
-        <v>14.9635</v>
+        <v>14.9658</v>
       </c>
       <c r="B8">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="C8">
-        <v>3.3799999999999997E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D8">
-        <v>0.96840000000000004</v>
+        <v>0.9684</v>
       </c>
       <c r="E8">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F8">
-        <v>23.218</v>
+        <v>23.2178</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -779,30 +729,30 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9">
-        <v>15.056900000000001</v>
+        <v>15.0596</v>
       </c>
       <c r="B9">
-        <v>1879</v>
+        <v>1873</v>
       </c>
       <c r="C9">
-        <v>3.39E-2</v>
+        <v>0.0339</v>
       </c>
       <c r="D9">
-        <v>0.96840000000000004</v>
+        <v>0.9684</v>
       </c>
       <c r="E9">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F9">
-        <v>23.2346</v>
+        <v>23.2343</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -814,30 +764,30 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10">
-        <v>14.9871</v>
+        <v>14.9874</v>
       </c>
       <c r="B10">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="C10">
-        <v>3.3799999999999997E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D10">
-        <v>0.96840000000000004</v>
+        <v>0.9684</v>
       </c>
       <c r="E10">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F10">
-        <v>23.223600000000001</v>
+        <v>23.2234</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -849,30 +799,30 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11">
-        <v>14.982100000000001</v>
+        <v>14.9839</v>
       </c>
       <c r="B11">
-        <v>1447</v>
+        <v>1436</v>
       </c>
       <c r="C11">
-        <v>3.3799999999999997E-2</v>
+        <v>0.0338</v>
       </c>
       <c r="D11">
-        <v>0.96840000000000004</v>
+        <v>0.9684</v>
       </c>
       <c r="E11">
-        <v>6.6000000000000003E-2</v>
+        <v>0.066</v>
       </c>
       <c r="F11">
-        <v>23.223199999999999</v>
+        <v>23.2231</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -884,30 +834,30 @@
         <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12">
-        <v>19.319700000000001</v>
+        <v>19.3193</v>
       </c>
       <c r="B12">
         <v>1536</v>
       </c>
       <c r="C12">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="D12">
-        <v>0.95150000000000001</v>
+        <v>0.9515</v>
       </c>
       <c r="E12">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="F12">
-        <v>32.438699999999997</v>
+        <v>32.4386</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -919,30 +869,30 @@
         <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13">
-        <v>19.328499999999998</v>
+        <v>19.3278</v>
       </c>
       <c r="B13">
         <v>1508</v>
       </c>
       <c r="C13">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="D13">
-        <v>0.95150000000000001</v>
+        <v>0.9515</v>
       </c>
       <c r="E13">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="F13">
-        <v>32.438800000000001</v>
+        <v>32.4389</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -954,30 +904,30 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14">
-        <v>21.386500000000002</v>
+        <v>21.3856</v>
       </c>
       <c r="B14">
         <v>7766</v>
       </c>
       <c r="C14">
-        <v>5.9700000000000003E-2</v>
+        <v>0.0597</v>
       </c>
       <c r="D14">
-        <v>0.94820000000000004</v>
+        <v>0.9482</v>
       </c>
       <c r="E14">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="F14">
-        <v>32.982300000000002</v>
+        <v>32.9823</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -989,30 +939,30 @@
         <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15">
-        <v>19.352900000000002</v>
+        <v>19.352</v>
       </c>
       <c r="B15">
         <v>1509</v>
       </c>
       <c r="C15">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="D15">
-        <v>0.95150000000000001</v>
+        <v>0.9515</v>
       </c>
       <c r="E15">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="F15">
-        <v>32.456099999999999</v>
+        <v>32.4562</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -1024,30 +974,30 @@
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16">
-        <v>19.352900000000002</v>
+        <v>19.352</v>
       </c>
       <c r="B16">
         <v>1509</v>
       </c>
       <c r="C16">
-        <v>5.5399999999999998E-2</v>
+        <v>0.0554</v>
       </c>
       <c r="D16">
-        <v>0.95150000000000001</v>
+        <v>0.9515</v>
       </c>
       <c r="E16">
-        <v>0.11609999999999999</v>
+        <v>0.1161</v>
       </c>
       <c r="F16">
-        <v>32.456099999999999</v>
+        <v>32.4562</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -1059,10 +1009,535 @@
         <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>19.3197</v>
+      </c>
+      <c r="B17">
+        <v>1536</v>
+      </c>
+      <c r="C17">
+        <v>0.0554</v>
+      </c>
+      <c r="D17">
+        <v>0.9515</v>
+      </c>
+      <c r="E17">
+        <v>0.1161</v>
+      </c>
+      <c r="F17">
+        <v>32.4387</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>19.3285</v>
+      </c>
+      <c r="B18">
+        <v>1508</v>
+      </c>
+      <c r="C18">
+        <v>0.0554</v>
+      </c>
+      <c r="D18">
+        <v>0.9515</v>
+      </c>
+      <c r="E18">
+        <v>0.1161</v>
+      </c>
+      <c r="F18">
+        <v>32.4388</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>21.3865</v>
+      </c>
+      <c r="B19">
+        <v>7766</v>
+      </c>
+      <c r="C19">
+        <v>0.0597</v>
+      </c>
+      <c r="D19">
+        <v>0.9482</v>
+      </c>
+      <c r="E19">
+        <v>0.1161</v>
+      </c>
+      <c r="F19">
+        <v>32.9823</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19.3529</v>
+      </c>
+      <c r="B20">
+        <v>1509</v>
+      </c>
+      <c r="C20">
+        <v>0.0554</v>
+      </c>
+      <c r="D20">
+        <v>0.9515</v>
+      </c>
+      <c r="E20">
+        <v>0.1161</v>
+      </c>
+      <c r="F20">
+        <v>32.4561</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>19.3529</v>
+      </c>
+      <c r="B21">
+        <v>1509</v>
+      </c>
+      <c r="C21">
+        <v>0.0554</v>
+      </c>
+      <c r="D21">
+        <v>0.9515</v>
+      </c>
+      <c r="E21">
+        <v>0.1161</v>
+      </c>
+      <c r="F21">
+        <v>32.4561</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>11.9138</v>
+      </c>
+      <c r="B22">
+        <v>1507</v>
+      </c>
+      <c r="C22">
+        <v>0.0257</v>
+      </c>
+      <c r="D22">
+        <v>0.9792999999999999</v>
+      </c>
+      <c r="E22">
+        <v>0.0703</v>
+      </c>
+      <c r="F22">
+        <v>19.5615</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>12.2531</v>
+      </c>
+      <c r="B23">
+        <v>1823</v>
+      </c>
+      <c r="C23">
+        <v>0.0283</v>
+      </c>
+      <c r="D23">
+        <v>0.9758</v>
+      </c>
+      <c r="E23">
+        <v>0.0643</v>
+      </c>
+      <c r="F23">
+        <v>20.4909</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>45.655</v>
+      </c>
+      <c r="B24">
+        <v>22302</v>
+      </c>
+      <c r="C24">
+        <v>0.07630000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.9575</v>
+      </c>
+      <c r="E24">
+        <v>0.1243</v>
+      </c>
+      <c r="F24">
+        <v>29.9738</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>70.7052</v>
+      </c>
+      <c r="B25">
+        <v>32592</v>
+      </c>
+      <c r="C25">
+        <v>0.09420000000000001</v>
+      </c>
+      <c r="D25">
+        <v>0.9609</v>
+      </c>
+      <c r="E25">
+        <v>0.1058</v>
+      </c>
+      <c r="F25">
+        <v>32.4392</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>13.4465</v>
+      </c>
+      <c r="B26">
+        <v>1501</v>
+      </c>
+      <c r="C26">
+        <v>0.0428</v>
+      </c>
+      <c r="D26">
+        <v>0.9500999999999999</v>
+      </c>
+      <c r="E26">
+        <v>0.1043</v>
+      </c>
+      <c r="F26">
+        <v>26.6853</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>10.7545</v>
+      </c>
+      <c r="B27">
+        <v>1497</v>
+      </c>
+      <c r="C27">
+        <v>0.0268</v>
+      </c>
+      <c r="D27">
+        <v>0.9708</v>
+      </c>
+      <c r="E27">
+        <v>0.0866</v>
+      </c>
+      <c r="F27">
+        <v>20.1398</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>11.0359</v>
+      </c>
+      <c r="B28">
+        <v>1681</v>
+      </c>
+      <c r="C28">
+        <v>0.029</v>
+      </c>
+      <c r="D28">
+        <v>0.9704</v>
+      </c>
+      <c r="E28">
+        <v>0.1004</v>
+      </c>
+      <c r="F28">
+        <v>21.1717</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>34.4944</v>
+      </c>
+      <c r="B29">
+        <v>17281</v>
+      </c>
+      <c r="C29">
+        <v>0.075</v>
+      </c>
+      <c r="D29">
+        <v>0.9540999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.0982</v>
+      </c>
+      <c r="F29">
+        <v>30.1912</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>47.1893</v>
+      </c>
+      <c r="B30">
+        <v>37213</v>
+      </c>
+      <c r="C30">
+        <v>0.09089999999999999</v>
+      </c>
+      <c r="D30">
+        <v>0.9520999999999999</v>
+      </c>
+      <c r="E30">
+        <v>0.1168</v>
+      </c>
+      <c r="F30">
+        <v>32.0607</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>11.7139</v>
+      </c>
+      <c r="B31">
+        <v>1510</v>
+      </c>
+      <c r="C31">
+        <v>0.04</v>
+      </c>
+      <c r="D31">
+        <v>0.9538</v>
+      </c>
+      <c r="E31">
+        <v>0.1187</v>
+      </c>
+      <c r="F31">
+        <v>26.3095</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
